--- a/doc/pitch size.xlsx
+++ b/doc/pitch size.xlsx
@@ -391,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>360</v>
@@ -431,107 +433,117 @@
         <v>567</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>B3/B2</f>
+        <v>1.5441176470588236</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C3/C2</f>
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f>B3/2</f>
         <v>52.5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>C3/2</f>
         <v>283.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>B3/11</f>
         <v>9.545454545454545</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>C3/11</f>
         <v>51.545454545454547</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <f>B2/9</f>
-        <v>7.2222222222222223</v>
-      </c>
-      <c r="C7" s="1">
+        <v>7.5555555555555554</v>
+      </c>
+      <c r="C8" s="1">
         <f>C2/10</f>
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <f>B3/6.5</f>
         <v>16.153846153846153</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f>C3/6.5</f>
         <v>87.230769230769226</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <f>2*(B3/6.5)+B7</f>
-        <v>39.529914529914528</v>
-      </c>
-      <c r="C9" s="1">
-        <f>2*(C3/6.5)+C7</f>
-        <v>210.46153846153845</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <f>2*(B3/6.5)+B8</f>
+        <v>39.863247863247864</v>
+      </c>
+      <c r="C10" s="1">
+        <f>2*(C3/6.5)+C8</f>
+        <v>210.46153846153845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <f>B3/9.5</f>
         <v>11.052631578947368</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f>C3/9.5</f>
         <v>59.684210526315788</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <f>B3/19.5</f>
         <v>5.384615384615385</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f>C3/19.5</f>
         <v>29.076923076923077</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <f>2*(B3/19.5)+B7</f>
-        <v>17.991452991452991</v>
-      </c>
-      <c r="C12" s="1">
-        <f>2*(C3/19.5)+C7</f>
+      <c r="B13" s="1">
+        <f>2*(B3/19.5)+B8</f>
+        <v>18.324786324786324</v>
+      </c>
+      <c r="C13" s="1">
+        <f>2*(C3/19.5)+C8</f>
         <v>94.15384615384616</v>
       </c>
     </row>
